--- a/programs/static/files_to_read/items.xlsx
+++ b/programs/static/files_to_read/items.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gusmtz/Documents/progra/Basics/interviews2/programs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gusmtz/Documents/progra/Basics/interviews2/programs/static/files_to_read/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06132C0B-DD92-8747-96FA-1F16A0334E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F0B54E-522D-0045-AC47-C21C99ED31D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{518C079C-1E8C-449B-8122-B421E6C2BB16}"/>
   </bookViews>
@@ -36,12 +36,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>elephant</t>
   </si>
   <si>
     <t>mouse</t>
+  </si>
+  <si>
+    <t>mountain</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>sea</t>
+  </si>
+  <si>
+    <t>island</t>
+  </si>
+  <si>
+    <t>coconout</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>eagle</t>
+  </si>
+  <si>
+    <t>plane</t>
+  </si>
+  <si>
+    <t>boat</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>bike</t>
   </si>
 </sst>
 </file>
@@ -416,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55969A9F-A762-4FE0-B516-94C0A8C250A7}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -435,7 +477,77 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
